--- a/biology/Médecine/Radius_(os)/Radius_(os).xlsx
+++ b/biology/Médecine/Radius_(os)/Radius_(os).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le radius (du latin, radius, « rayon »), est un os long interne du zeugopode du membre chiridien des vertébrés tétrapodes. Chez l'Homme, le radius constitue, avec l'ulna, l'avant-bras dont il occupe la partie latérale.
 Il s'articule au niveau du coude avec l'humérus et l'ulna, et au niveau du poignet avec l'ulna, l'os scaphoïde et l'os lunatum.
@@ -516,113 +528,636 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diaphyse
-La diaphyse ou corps du radius est de section triangulaire. Il est plus étroit en haut qu'en bas. Il est légèrement incurvé en étant convexe latéralement. Il présente trois faces (antérieure, postérieure et latérale) et trois bords (antérieur, postérieur et interosseux).
-Face antérieure
-La face antérieure ou face palmaire est concave dans ses trois quarts supérieurs et donne naissance au muscle long fléchisseur du pouce. Elle est large et plate dans son quart inférieur, et donne insertion au muscle carré pronateur. En dessous de son insertion, une crête proéminente limite une zone triangulaire rugueuse donnant insertion au ligament radio-carpien palmaire.
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse ou corps du radius est de section triangulaire. Il est plus étroit en haut qu'en bas. Il est légèrement incurvé en étant convexe latéralement. Il présente trois faces (antérieure, postérieure et latérale) et trois bords (antérieur, postérieur et interosseux).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face antérieure ou face palmaire est concave dans ses trois quarts supérieurs et donne naissance au muscle long fléchisseur du pouce. Elle est large et plate dans son quart inférieur, et donne insertion au muscle carré pronateur. En dessous de son insertion, une crête proéminente limite une zone triangulaire rugueuse donnant insertion au ligament radio-carpien palmaire.
 À la jonction des tiers supérieur et moyen de la face palmaire se trouve le foramen nutritif, qui est dirigé obliquement vers le haut.
-Face postérieure
-La face postérieure ou face dorsale est convexe. Son tiers supérieur est lisse et recouverte par le muscle supinateur. Son tiers médian est large, légèrement concave, et donne naissance au muscle long abducteur du pouce en haut et au muscle court extenseur du pouce en bas. Son tiers inférieur est large, convexe et recouvert par les tendons des muscles qui passent dans les rainures de l'extrémité inférieure de l'os.
-Face latérale
-La face latérale est convexe sur toute son étendue. Son tiers supérieur donne insertion au muscle supinateur. Autour de son centre se trouve une crête rugueuse, la tubérosité pronatrice, pour l'insertion du muscle rond pronateur[1]. Sa partie inférieure est étroite et couverte par les tendons du muscle long abducteur du pouce et du muscle court extenseur du pouce.
-Bord antérieur
-Le bord antérieur ou palmaire sépare la face antérieure de la face latérale et s'étend de la partie inférieure de la tubérosité du radius jusqu'à la partie supérieure du processus styloïde du radius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Face postérieure</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face postérieure ou face dorsale est convexe. Son tiers supérieur est lisse et recouverte par le muscle supinateur. Son tiers médian est large, légèrement concave, et donne naissance au muscle long abducteur du pouce en haut et au muscle court extenseur du pouce en bas. Son tiers inférieur est large, convexe et recouvert par les tendons des muscles qui passent dans les rainures de l'extrémité inférieure de l'os.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Face latérale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face latérale est convexe sur toute son étendue. Son tiers supérieur donne insertion au muscle supinateur. Autour de son centre se trouve une crête rugueuse, la tubérosité pronatrice, pour l'insertion du muscle rond pronateur. Sa partie inférieure est étroite et couverte par les tendons du muscle long abducteur du pouce et du muscle court extenseur du pouce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bord antérieur</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord antérieur ou palmaire sépare la face antérieure de la face latérale et s'étend de la partie inférieure de la tubérosité du radius jusqu'à la partie supérieure du processus styloïde du radius.
 Son tiers supérieur est proéminent, et de direction oblique de haut en bas et médio-latéral. Il donne naissance au muscle fléchisseur superficiel des doigts et au muscle long fléchisseur du pouce.
 La surface au-dessus de la partie oblique et sur la face latérale s'insère le muscle supinateur.
 Le tiers médian du bord antérieur est indistinct et arrondi.
 Le quart inférieur est proéminent et donne une insertion au muscle carré pronateur et une attache au rétinaculum des muscles extenseurs de la main.
-Bord postérieur
-Le bord postérieur ou bord dorsal sépare la face postérieure de la face latérale et commence en haut à l'arrière du col du radius et se termine en bas à la partie postérieure de la base du processus styloïde. Il est indistinct en haut et en bas, mais bien marqué dans le tiers médian de la diaphyse.
-Bord interosseux
-Le bord interosseux ou bord interne sépare la face antérieure de la face postérieure. Il commence en haut à la partie postérieure de la tubérosité du radius. En bas il se divise en deux crêtes qui se poursuivent jusqu'aux bords antérieur et postérieur de l'incisure ulnaire du radius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bord postérieur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord postérieur ou bord dorsal sépare la face postérieure de la face latérale et commence en haut à l'arrière du col du radius et se termine en bas à la partie postérieure de la base du processus styloïde. Il est indistinct en haut et en bas, mais bien marqué dans le tiers médian de la diaphyse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Bord interosseux</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord interosseux ou bord interne sépare la face antérieure de la face postérieure. Il commence en haut à la partie postérieure de la tubérosité du radius. En bas il se divise en deux crêtes qui se poursuivent jusqu'aux bords antérieur et postérieur de l'incisure ulnaire du radius.
 Il donne attache à la membrane interosseuse de l'avant-bras pour réaliser la syndesmose radio-ulnaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Radius_(os)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Épiphyse proximale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiphyse proximale du radius est constituée de la tête présente une tête du radius, du col du radius et de la tubérosité du radius.
-Tête du radius
-La tête du radius est une saillie cylindrique au sommet du radius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épiphyse proximale</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tête du radius</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tête du radius est une saillie cylindrique au sommet du radius.
 Sa face supérieure présente une surface articulaire de faible concavité, la facette articulaire de la tête du radius qui s'articule avec le capitulum de l'humérus pour former l'articulation huméro-radiale. Le point le plus profond de cette cavité n'est pas axisymétrique avec le grand axe du radius, créant un effet de came lors de la pronation et de la supination.
 La circonférence articulaire de la tête du radius est lisse et s'articule médialement avec l'incisure radiale de l'ulna pour former l'articulation radio-ulnaire proximale. Elle est embrassée par le ligament annulaire du radius.
-Col du radius
-Le col du radius est la partie cylindrique et rétrécie qui sépare la tête du radius de la diaphyse du radius. Sur sa partie postérieure une légère crête donne une insertion au muscle long abducteur du pouce.
-Tubérosité du radius
-La tubérosité du radius est une éminence ovoïde à grand axe vertical qui est situé en avant et médialement à la jonction du col et de la diaphyse du radius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épiphyse proximale</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Col du radius</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le col du radius est la partie cylindrique et rétrécie qui sépare la tête du radius de la diaphyse du radius. Sur sa partie postérieure une légère crête donne une insertion au muscle long abducteur du pouce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épiphyse proximale</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tubérosité du radius</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tubérosité du radius est une éminence ovoïde à grand axe vertical qui est situé en avant et médialement à la jonction du col et de la diaphyse du radius.
 Sa partie postérieure rugueuse donne insertion au tendon du muscle biceps brachial.
 Sa partie antérieure lisse est séparée du tendon par une bourse synoviale.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Radius_(os)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Épiphyse distale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiphyse distale du radius est de forme quadrilatère aplatie d'avant en arrière.
 Elle présente cinq faces (antérieure, postérieure, latérale, médiale et inférieure).
-Face antérieure
-La face antérieure ou face palmaire est rugueuse et irrégulière. Elle donne insertion au ligament radio-carpien palmaire.
-Face postérieure
-La face postérieure ou face dorsale est convexe. Elle donne insertion au ligament radio-carpien dorsal. Elle est marquée des sillons des tendons des muscles extenseurs du radius :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Épiphyse distale</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face antérieure ou face palmaire est rugueuse et irrégulière. Elle donne insertion au ligament radio-carpien palmaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Épiphyse distale</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Face postérieure</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face postérieure ou face dorsale est convexe. Elle donne insertion au ligament radio-carpien dorsal. Elle est marquée des sillons des tendons des muscles extenseurs du radius :
 Le premier sillon latéral est large, peu profond et subdivisé en deux par une légère crête. Latéralement à cette crête passe le tendon du muscle long extenseur radial du carpe et médialement le tendon du muscle court extenseur radial du carpe.
 Le deuxième est profond, étroit et délimité latéralement par une crête bien définie ; il est dirigé obliquement en bas et en dehors, et transmet le tendon du muscle long extenseur du pouce.
 Le troisième est large, pour le passage des tendons du muscle extenseur des doigts et du muscle extenseur de l'index.
 La crête séparant les deux derniers sillons est le tubercule dorsal du radius.
-Face latérale
-La face latérale étroite est séparée de la face postérieure par la crête suprastyloïdienne. Elle présente une gouttière pour le passage des tendons du muscle long abducteur du pouce et du muscle court extenseur du pouce. En bas elle se prolonge par une volumineuse apophyse : le processus styloïde du radius. Celui-ci donne insertion à sa base au muscle brachio-radial et à son sommet au ligament collatéral radial du carpe.
-Face médiale
-La face médiale est triangulaire. Elle se situe entre les deux bifurcations du bord interosseux. Sa partie inférieure présente une surface articulaire concave d'avant en arrière : l'incisure ulnaire du radius qui s'articule avec la tête de l'ulna pour former l'articulation radio-ulnaire distale.
-Face inférieure
-La face inférieure est entièrement articulaire et recouverte de cartilage hyalin. De forme triangulaire à sommet latéral, la surface articulaire carpienne du radius est lisse et concave dans tous les sens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Épiphyse distale</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Face latérale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face latérale étroite est séparée de la face postérieure par la crête suprastyloïdienne. Elle présente une gouttière pour le passage des tendons du muscle long abducteur du pouce et du muscle court extenseur du pouce. En bas elle se prolonge par une volumineuse apophyse : le processus styloïde du radius. Celui-ci donne insertion à sa base au muscle brachio-radial et à son sommet au ligament collatéral radial du carpe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Épiphyse distale</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Face médiale</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face médiale est triangulaire. Elle se situe entre les deux bifurcations du bord interosseux. Sa partie inférieure présente une surface articulaire concave d'avant en arrière : l'incisure ulnaire du radius qui s'articule avec la tête de l'ulna pour former l'articulation radio-ulnaire distale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Épiphyse distale</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Face inférieure</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face inférieure est entièrement articulaire et recouverte de cartilage hyalin. De forme triangulaire à sommet latéral, la surface articulaire carpienne du radius est lisse et concave dans tous les sens.
 Elle est divisée en deux zones par une crête antéro-postérieure émoussée. La zone médiale quadrilatère s'articule avec l'os lunatum, la zone latérale triangulaire s'articule avec l'os scaphoïde.
 Elle est séparée de la face médiale et de l'incisure ulnaire par une crête qui donne insertion à la base du ligament triangulaire.
 L'ensemble formant l'articulation radio-carpienne.
@@ -630,64 +1165,103 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Radius_(os)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Le radius avec l'ulna permet les mouvements de pronation - supination par rotation de ces deux os l'un par rapport à l'autre.
-Système musculaire
-Le radius est l'origine et le point d'insertion des muscles suivants :
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Radius_(os)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Anatomie fonctionnelle</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Système musculaire</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le radius est l'origine et le point d'insertion des muscles suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Le radius s'ossifie à partir de trois centres : un pour la diaphyse et un pour chaque épiphyse.
 Le premier centre d'ossification apparait près du centre de l'os, au cours de la huitième semaine de la vie fœtale.
@@ -698,40 +1272,122 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Radius_(os)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplasie radiale
-L'aplasie radiale est l'absence ou à la brièveté congénitale du radius. On peut la retrouver dans des syndromes comme le syndrome de Baller-Gerold.
-Fracture radiale
-Fracture du radius proximal
-La fracture peut se produire dans la capsule de l'articulation du coude. Elle n'est pas nécessairement visible directement sur une radio mais peut être détectée par le déplacement des coussinet adipeux suite à l'épanchement articulaire par le "signe du voile".
-La lésion d'Essex-Lopresti est une fracture de la tête du radius concomitante avec une luxation de l'articulation radio-ulnaire distale et une lésion de la membrane interosseuse de l'avant-bras[2].
-Fracture du radius distal
-Les fractures distale du radius peuvent être concomitantes avec des déplacements des autres articulations constitutives de l'articulation du poignet.
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Aplasie radiale</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aplasie radiale est l'absence ou à la brièveté congénitale du radius. On peut la retrouver dans des syndromes comme le syndrome de Baller-Gerold.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fracture radiale</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Fracture du radius proximal</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fracture peut se produire dans la capsule de l'articulation du coude. Elle n'est pas nécessairement visible directement sur une radio mais peut être détectée par le déplacement des coussinet adipeux suite à l'épanchement articulaire par le "signe du voile".
+La lésion d'Essex-Lopresti est une fracture de la tête du radius concomitante avec une luxation de l'articulation radio-ulnaire distale et une lésion de la membrane interosseuse de l'avant-bras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fracture radiale</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fracture du radius distal</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fractures distale du radius peuvent être concomitantes avec des déplacements des autres articulations constitutives de l'articulation du poignet.
 Elle est associée avec une luxation de l'articulation radio-ulnaire distale dans le cas d'une fracture de Galeazzi.
 Elle est associée avec un déplacement dorsal du radius dans le cas d'une fracture de Pouteau-Colles.
 Elle est associée avec un déplacement ventral du radius dans le cas d'une fracture de Goyrand-Smith.
@@ -740,33 +1396,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Radius_(os)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Radius_(os)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Radius_(os)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les animaux à quatre pattes, le radius est le principal os porteur de la patte antérieure. Sa structure est similaire chez la plupart des tétrapodes terrestres, mais il peut être fusionné avec l'ulna chez certains mammifères (comme les chevaux ) ou réduit. Il peut être modifié chez les animaux avec des nageoires ou avec des membres antérieurs vestigiaux[3].
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les animaux à quatre pattes, le radius est le principal os porteur de la patte antérieure. Sa structure est similaire chez la plupart des tétrapodes terrestres, mais il peut être fusionné avec l'ulna chez certains mammifères (comme les chevaux ) ou réduit. Il peut être modifié chez les animaux avec des nageoires ou avec des membres antérieurs vestigiaux.
 </t>
         </is>
       </c>
